--- a/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AMC-700" sheetId="1" r:id="rId1"/>
-    <sheet name="AMC-800" sheetId="2" r:id="rId4"/>
-    <sheet name="AMC-900" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5 AMC-700  0-110-0-450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 AMC-800  0-110-0-450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5 AMC-900  0-110-0-450 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AMC-700</a:t>
+              <a:t>Izoterma adsorpcji probki AMC-700 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AMC-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 AMC-700  0-110-0-450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AMC-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 AMC-700  0-110-0-450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AMC-800</a:t>
+              <a:t>Izoterma adsorpcji probki AMC-800 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AMC-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 AMC-800  0-110-0-450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AMC-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 AMC-800  0-110-0-450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AMC-900</a:t>
+              <a:t>Izoterma adsorpcji probki AMC-900 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AMC-900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 AMC-900  0-110-0-450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AMC-900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 AMC-900  0-110-0-450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,277 +3120,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.2</v>
+        <v>100.5263</v>
       </c>
       <c r="B3" s="0">
-        <v>164.9375</v>
+        <v>213.2553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.4</v>
+        <v>98.4075</v>
       </c>
       <c r="B4" s="0">
-        <v>170.3651</v>
+        <v>208.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>6.6</v>
+        <v>96.2891</v>
       </c>
       <c r="B5" s="0">
-        <v>174.3047</v>
+        <v>205.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>8.8</v>
+        <v>91.4641</v>
       </c>
       <c r="B6" s="0">
-        <v>176.9377</v>
+        <v>200.057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11</v>
+        <v>86.7571</v>
       </c>
       <c r="B7" s="0">
-        <v>178.7386</v>
+        <v>196.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>13.2</v>
+        <v>82.0508</v>
       </c>
       <c r="B8" s="0">
-        <v>180.0597</v>
+        <v>194.2902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>15.4</v>
+        <v>77.1092</v>
       </c>
       <c r="B9" s="0">
-        <v>180.9682</v>
+        <v>192.5491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>17.6</v>
+        <v>72.2855</v>
       </c>
       <c r="B10" s="0">
-        <v>181.4464</v>
+        <v>191.9522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>19.8</v>
+        <v>67.3438</v>
       </c>
       <c r="B11" s="0">
-        <v>182.087</v>
+        <v>190.2112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>22</v>
+        <v>62.2849</v>
       </c>
       <c r="B12" s="0">
-        <v>182.7472</v>
+        <v>189.6131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>24.2</v>
+        <v>57.2257</v>
       </c>
       <c r="B13" s="0">
-        <v>183.2817</v>
+        <v>188.4432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>26.4</v>
+        <v>52.0491</v>
       </c>
       <c r="B14" s="0">
-        <v>183.8828</v>
+        <v>187.8445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>28.6</v>
+        <v>47.1078</v>
       </c>
       <c r="B15" s="0">
-        <v>184.186</v>
+        <v>187.247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>30.8</v>
+        <v>41.931</v>
       </c>
       <c r="B16" s="0">
-        <v>184.3962</v>
+        <v>186.0765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>33</v>
+        <v>37.1072</v>
       </c>
       <c r="B17" s="0">
-        <v>185.2146</v>
+        <v>184.9079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>35.2</v>
+        <v>32.2833</v>
       </c>
       <c r="B18" s="0">
-        <v>185.5669</v>
+        <v>183.7392</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>37.4</v>
+        <v>29.5773</v>
       </c>
       <c r="B19" s="0">
-        <v>185.7036</v>
+        <v>183.1534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>39.6</v>
+        <v>26.9889</v>
       </c>
       <c r="B20" s="0">
-        <v>186.3076</v>
+        <v>182.5681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>41.8</v>
+        <v>24.5182</v>
       </c>
       <c r="B21" s="0">
-        <v>186.6501</v>
+        <v>181.9835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>94.6</v>
+        <v>21.9296</v>
       </c>
       <c r="B22" s="0">
-        <v>203.8063</v>
+        <v>180.8264</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>96.8</v>
+        <v>19.3412</v>
       </c>
       <c r="B23" s="0">
-        <v>206.128</v>
+        <v>180.2412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>99</v>
+        <v>16.7528</v>
       </c>
       <c r="B24" s="0">
-        <v>210.36</v>
+        <v>179.6559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>100.6441</v>
+        <v>13.9289</v>
       </c>
       <c r="B25" s="0">
-        <v>213.8277</v>
+        <v>177.9259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>86.757</v>
+        <v>10.8697</v>
       </c>
       <c r="B26" s="0">
-        <v>195.4582</v>
+        <v>176.7664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>81.933</v>
+        <v>7.6927</v>
       </c>
       <c r="B27" s="0">
-        <v>193.7178</v>
+        <v>174.4627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>77.3445</v>
+        <v>4.6332</v>
       </c>
       <c r="B28" s="0">
-        <v>192.5503</v>
+        <v>172.1597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.2856</v>
+        <v>3.1034</v>
       </c>
       <c r="B29" s="0">
-        <v>192.524</v>
+        <v>170.4363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>67.1088</v>
+        <v>1.926</v>
       </c>
       <c r="B30" s="0">
-        <v>191.3535</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>62.5202</v>
-      </c>
-      <c r="B31" s="0">
-        <v>189.6143</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>57.2259</v>
-      </c>
-      <c r="B32" s="0">
-        <v>189.015</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>52.049</v>
-      </c>
-      <c r="B33" s="0">
-        <v>187.2727</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>47.3429</v>
-      </c>
-      <c r="B34" s="0">
-        <v>186.6765</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>91.4641</v>
-      </c>
-      <c r="B35" s="0">
-        <v>200.057</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>44.8725</v>
-      </c>
-      <c r="B36" s="0">
-        <v>187.2354</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>166.9995</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3399,7 +3351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3420,397 +3372,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.2</v>
+        <v>102.3218</v>
       </c>
       <c r="B3" s="0">
-        <v>222.4071</v>
+        <v>331.0537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.4</v>
+        <v>102.2022</v>
       </c>
       <c r="B4" s="0">
-        <v>232.6377</v>
+        <v>323.6198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>6.6</v>
+        <v>100.3168</v>
       </c>
       <c r="B5" s="0">
-        <v>240.6327</v>
+        <v>311.6024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>8.8</v>
+        <v>98.0794</v>
       </c>
       <c r="B6" s="0">
-        <v>246.3869</v>
+        <v>303.5857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11</v>
+        <v>93.254</v>
       </c>
       <c r="B7" s="0">
-        <v>251.5762</v>
+        <v>296.6991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>13.2</v>
+        <v>88.5471</v>
       </c>
       <c r="B8" s="0">
-        <v>255.2463</v>
+        <v>292.6721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>15.4</v>
+        <v>83.9581</v>
       </c>
       <c r="B9" s="0">
-        <v>258.2026</v>
+        <v>289.7893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>17.6</v>
+        <v>78.781</v>
       </c>
       <c r="B10" s="0">
-        <v>260.6443</v>
+        <v>287.4752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>19.8</v>
+        <v>73.9569</v>
       </c>
       <c r="B11" s="0">
-        <v>262.6882</v>
+        <v>285.163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>22</v>
+        <v>68.6626</v>
       </c>
       <c r="B12" s="0">
-        <v>264.5486</v>
+        <v>284.5636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>24.2</v>
+        <v>63.7211</v>
       </c>
       <c r="B13" s="0">
-        <v>266.3157</v>
+        <v>283.3944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>26.4</v>
+        <v>58.4266</v>
       </c>
       <c r="B14" s="0">
-        <v>267.9459</v>
+        <v>281.6515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>28.6</v>
+        <v>53.2495</v>
       </c>
       <c r="B15" s="0">
-        <v>269.5047</v>
+        <v>279.3374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>30.8</v>
+        <v>48.0726</v>
       </c>
       <c r="B16" s="0">
-        <v>270.6226</v>
+        <v>277.5951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>33</v>
+        <v>42.778</v>
       </c>
       <c r="B17" s="0">
-        <v>271.7408</v>
+        <v>275.8522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>35.2</v>
+        <v>37.3656</v>
       </c>
       <c r="B18" s="0">
-        <v>273.0445</v>
+        <v>273.5369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>37.4</v>
+        <v>32.6591</v>
       </c>
       <c r="B19" s="0">
-        <v>273.9121</v>
+        <v>271.2253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>39.6</v>
+        <v>29.9528</v>
       </c>
       <c r="B20" s="0">
-        <v>275.0961</v>
+        <v>269.4958</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>41.8</v>
+        <v>27.4818</v>
       </c>
       <c r="B21" s="0">
-        <v>276.2098</v>
+        <v>267.7676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>44</v>
+        <v>24.8929</v>
       </c>
       <c r="B22" s="0">
-        <v>277.2762</v>
+        <v>265.467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>46.2</v>
+        <v>21.8334</v>
       </c>
       <c r="B23" s="0">
-        <v>278.3581</v>
+        <v>262.5921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.4</v>
+        <v>19.1272</v>
       </c>
       <c r="B24" s="0">
-        <v>278.9935</v>
+        <v>261.4345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>50.6</v>
+        <v>16.7735</v>
       </c>
       <c r="B25" s="0">
-        <v>279.8201</v>
+        <v>258.5633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>52.8</v>
+        <v>13.596</v>
       </c>
       <c r="B26" s="0">
-        <v>280.4806</v>
+        <v>254.5442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>55</v>
+        <v>10.5361</v>
       </c>
       <c r="B27" s="0">
-        <v>281.2187</v>
+        <v>250.5258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>57.2</v>
+        <v>7.5933</v>
       </c>
       <c r="B28" s="0">
-        <v>281.5437</v>
+        <v>244.2208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>59.4</v>
+        <v>5.2385</v>
       </c>
       <c r="B29" s="0">
-        <v>282.1556</v>
+        <v>237.347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>61.6</v>
+        <v>3.8259</v>
       </c>
       <c r="B30" s="0">
-        <v>282.783</v>
+        <v>233.909</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>63.8</v>
+        <v>2.8832</v>
       </c>
       <c r="B31" s="0">
-        <v>283.3626</v>
+        <v>228.1861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>66</v>
+        <v>1.5873</v>
       </c>
       <c r="B32" s="0">
-        <v>284.6182</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>68.2</v>
-      </c>
-      <c r="B33" s="0">
-        <v>285.099</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>70.4</v>
-      </c>
-      <c r="B34" s="0">
-        <v>285.6642</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>72.6</v>
-      </c>
-      <c r="B35" s="0">
-        <v>286.0122</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>74.8</v>
-      </c>
-      <c r="B36" s="0">
-        <v>286.3467</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>77</v>
-      </c>
-      <c r="B37" s="0">
-        <v>287.1936</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>79.2</v>
-      </c>
-      <c r="B38" s="0">
-        <v>287.9698</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>81.4</v>
-      </c>
-      <c r="B39" s="0">
-        <v>289.3612</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>83.6</v>
-      </c>
-      <c r="B40" s="0">
-        <v>290.1982</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>85.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>290.4887</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>291.5426</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>90.2</v>
-      </c>
-      <c r="B43" s="0">
-        <v>293.8113</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>92.4</v>
-      </c>
-      <c r="B44" s="0">
-        <v>296.5052</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>94.6</v>
-      </c>
-      <c r="B45" s="0">
-        <v>299.4293</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>96.8</v>
-      </c>
-      <c r="B46" s="0">
-        <v>302.9977</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>99</v>
-      </c>
-      <c r="B47" s="0">
-        <v>307.9848</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>101.2</v>
-      </c>
-      <c r="B48" s="0">
-        <v>319.757</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>102.3218</v>
-      </c>
-      <c r="B49" s="0">
-        <v>331.0537</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>102.0844</v>
-      </c>
-      <c r="B50" s="0">
-        <v>323.0474</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>100.0818</v>
-      </c>
-      <c r="B51" s="0">
-        <v>312.7448</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>221.3179</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3819,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3840,533 +3640,557 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>4.4</v>
+        <v>100.2251</v>
       </c>
       <c r="B3" s="0">
-        <v>288.8578</v>
+        <v>411.0937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>6.6</v>
+        <v>98.8119</v>
       </c>
       <c r="B4" s="0">
-        <v>297.2622</v>
+        <v>405.3684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>8.8</v>
+        <v>96.222</v>
       </c>
       <c r="B5" s="0">
-        <v>306.7356</v>
+        <v>399.0652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>11</v>
+        <v>91.9847</v>
       </c>
       <c r="B6" s="0">
-        <v>313.0445</v>
+        <v>391.6099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>13.2</v>
+        <v>86.1003</v>
       </c>
       <c r="B7" s="0">
-        <v>317.8781</v>
+        <v>383.5742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>15.4</v>
+        <v>81.1583</v>
       </c>
       <c r="B8" s="0">
-        <v>322.0411</v>
+        <v>380.6896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>17.6</v>
+        <v>75.981</v>
       </c>
       <c r="B9" s="0">
-        <v>326.3537</v>
+        <v>377.2319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>19.8</v>
+        <v>71.0392</v>
       </c>
       <c r="B10" s="0">
-        <v>330.001</v>
+        <v>374.9191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>22</v>
+        <v>65.9795</v>
       </c>
       <c r="B11" s="0">
-        <v>333.4399</v>
+        <v>371.462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>24.2</v>
+        <v>60.9197</v>
       </c>
       <c r="B12" s="0">
-        <v>336.6952</v>
+        <v>368.005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>26.4</v>
+        <v>55.6247</v>
       </c>
       <c r="B13" s="0">
-        <v>339.5725</v>
+        <v>364.5467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>28.6</v>
+        <v>50.3297</v>
       </c>
       <c r="B14" s="0">
-        <v>342.2444</v>
+        <v>361.0884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>30.8</v>
+        <v>45.7404</v>
       </c>
       <c r="B15" s="0">
-        <v>344.406</v>
+        <v>357.062</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>33</v>
+        <v>40.563</v>
       </c>
       <c r="B16" s="0">
-        <v>346.5963</v>
+        <v>353.6044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>35.2</v>
+        <v>36.2095</v>
       </c>
       <c r="B17" s="0">
-        <v>349.3996</v>
+        <v>351.2946</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>37.4</v>
+        <v>30.7961</v>
       </c>
       <c r="B18" s="0">
-        <v>351.0869</v>
+        <v>344.9767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>39.6</v>
+        <v>28.0891</v>
       </c>
       <c r="B19" s="0">
-        <v>352.8859</v>
+        <v>340.9601</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>41.8</v>
+        <v>25.1472</v>
       </c>
       <c r="B20" s="0">
-        <v>354.9506</v>
+        <v>338.0859</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>44</v>
+        <v>22.7935</v>
       </c>
       <c r="B21" s="0">
-        <v>356.6487</v>
+        <v>335.2147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>46.2</v>
+        <v>20.2044</v>
       </c>
       <c r="B22" s="0">
-        <v>358.8465</v>
+        <v>331.7705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.4</v>
+        <v>17.6148</v>
       </c>
       <c r="B23" s="0">
-        <v>361.3703</v>
+        <v>326.6109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>50.6</v>
+        <v>15.1429</v>
       </c>
       <c r="B24" s="0">
-        <v>363.6879</v>
+        <v>321.4519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>52.8</v>
+        <v>12.2003</v>
       </c>
       <c r="B25" s="0">
-        <v>365.0277</v>
+        <v>316.2905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>55</v>
+        <v>10.5519</v>
       </c>
       <c r="B26" s="0">
-        <v>366.1071</v>
+        <v>311.1358</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>57.2</v>
+        <v>9.3747</v>
       </c>
       <c r="B27" s="0">
-        <v>368.1703</v>
+        <v>308.2707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>59.4</v>
+        <v>7.7261</v>
       </c>
       <c r="B28" s="0">
-        <v>369.5032</v>
+        <v>302.5442</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>61.6</v>
+        <v>6.6664</v>
       </c>
       <c r="B29" s="0">
-        <v>370.0371</v>
+        <v>299.108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>63.8</v>
+        <v>5.3705</v>
       </c>
       <c r="B30" s="0">
-        <v>371.6972</v>
+        <v>292.2397</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>66</v>
+        <v>4.4286</v>
       </c>
       <c r="B31" s="0">
-        <v>372.9301</v>
+        <v>289.3759</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>68.2</v>
+        <v>3.7217</v>
       </c>
       <c r="B32" s="0">
-        <v>374.3869</v>
+        <v>285.3697</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>70.4</v>
+        <v>3.0146</v>
       </c>
       <c r="B33" s="0">
-        <v>375.4914</v>
+        <v>280.7916</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>72.6</v>
+        <v>2.5425</v>
       </c>
       <c r="B34" s="0">
-        <v>376.3772</v>
+        <v>275.0713</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>74.8</v>
+        <v>1.7173</v>
       </c>
       <c r="B35" s="0">
-        <v>378.0463</v>
+        <v>268.7773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>77</v>
+        <v>1.1271</v>
       </c>
       <c r="B36" s="0">
-        <v>379.1528</v>
+        <v>261.3409</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>79.2</v>
+        <v>0.7723</v>
       </c>
       <c r="B37" s="0">
-        <v>380.6191</v>
+        <v>253.9058</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>81.4</v>
+        <v>0.5349</v>
       </c>
       <c r="B38" s="0">
-        <v>382.2708</v>
+        <v>245.8995</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>83.6</v>
+        <v>0.415</v>
       </c>
       <c r="B39" s="0">
-        <v>383.7749</v>
+        <v>237.322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>85.8</v>
+        <v>0.1774</v>
       </c>
       <c r="B40" s="0">
-        <v>385.2768</v>
+        <v>228.7439</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>88</v>
+        <v>0.0573</v>
       </c>
       <c r="B41" s="0">
-        <v>387.2869</v>
+        <v>219.0228</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>90.2</v>
+        <v>-0.0632</v>
       </c>
       <c r="B42" s="0">
-        <v>389.9116</v>
+        <v>208.1581</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>92.4</v>
+        <v>-0.0658</v>
       </c>
       <c r="B43" s="0">
-        <v>392.2143</v>
+        <v>198.4376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>94.6</v>
+        <v>-0.0682</v>
       </c>
       <c r="B44" s="0">
-        <v>395.5821</v>
+        <v>189.289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>96.8</v>
+        <v>-0.0707</v>
       </c>
       <c r="B45" s="0">
-        <v>400.1494</v>
+        <v>179.5685</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99</v>
+        <v>-0.0727</v>
       </c>
       <c r="B46" s="0">
-        <v>406.664</v>
+        <v>172.1352</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>3.4858</v>
+        <v>-0.0744</v>
       </c>
       <c r="B47" s="0">
-        <v>283.0813</v>
+        <v>165.2737</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>2.5426</v>
+        <v>-0.0765</v>
       </c>
       <c r="B48" s="0">
-        <v>275.6431</v>
+        <v>157.2686</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1.7169</v>
+        <v>-0.0785</v>
       </c>
       <c r="B49" s="0">
-        <v>267.0619</v>
+        <v>149.8353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1.0089</v>
+        <v>-0.0806</v>
       </c>
       <c r="B50" s="0">
-        <v>259.0531</v>
+        <v>141.8302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.6536</v>
+        <v>-0.0822</v>
       </c>
       <c r="B51" s="0">
-        <v>249.9026</v>
+        <v>135.5405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.4156</v>
+        <v>-0.0839</v>
       </c>
       <c r="B52" s="0">
-        <v>239.6091</v>
+        <v>129.2508</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.2949</v>
+        <v>0.0318</v>
       </c>
       <c r="B53" s="0">
-        <v>228.1727</v>
+        <v>121.8181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.1746</v>
+        <v>0.0303</v>
       </c>
       <c r="B54" s="0">
-        <v>217.8798</v>
+        <v>116.1002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.2893</v>
+        <v>0.029</v>
       </c>
       <c r="B55" s="0">
-        <v>206.4446</v>
+        <v>110.954</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.286</v>
+        <v>-0.0903</v>
       </c>
       <c r="B56" s="0">
-        <v>193.8651</v>
+        <v>104.6637</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.1644</v>
+        <v>-0.0916</v>
       </c>
       <c r="B57" s="0">
-        <v>178.9979</v>
+        <v>99.5176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.161</v>
+        <v>-0.093</v>
       </c>
       <c r="B58" s="0">
-        <v>165.8467</v>
+        <v>94.3714</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.0401</v>
+        <v>-0.0945</v>
       </c>
       <c r="B59" s="0">
-        <v>153.2667</v>
+        <v>88.6535</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>-0.0813</v>
+        <v>-0.0961</v>
       </c>
       <c r="B60" s="0">
-        <v>138.9712</v>
+        <v>82.3638</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>-0.0857</v>
+        <v>-0.0981</v>
       </c>
       <c r="B61" s="0">
-        <v>122.3893</v>
+        <v>74.9305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>-0.2082</v>
+        <v>-0.2178</v>
       </c>
       <c r="B62" s="0">
-        <v>103.5195</v>
+        <v>66.9248</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>-0.0958</v>
+        <v>-0.2193</v>
       </c>
       <c r="B63" s="0">
-        <v>83.5074</v>
+        <v>61.2069</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>-0.1</v>
+        <v>-0.2208</v>
       </c>
       <c r="B64" s="0">
-        <v>67.4972</v>
+        <v>55.4889</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>-0.2223</v>
+        <v>-0.1048</v>
       </c>
       <c r="B65" s="0">
-        <v>49.771</v>
+        <v>49.1998</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>-0.1096</v>
+        <v>-0.1061</v>
       </c>
       <c r="B66" s="0">
-        <v>30.9025</v>
+        <v>44.0537</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.0043</v>
+        <v>-0.1078</v>
       </c>
       <c r="B67" s="0">
-        <v>16.6083</v>
+        <v>37.764</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>100.3432</v>
+        <v>-0.2268</v>
       </c>
       <c r="B68" s="0">
-        <v>412.8096</v>
-      </c>
-    </row>
-    <row r="69"/>
+        <v>32.6172</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>-0.1105</v>
+      </c>
+      <c r="B69" s="0">
+        <v>27.4717</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>-0.1117</v>
+      </c>
+      <c r="B70" s="0">
+        <v>22.8974</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>-0.1132</v>
+      </c>
+      <c r="B71" s="0">
+        <v>17.1795</v>
+      </c>
+    </row>
+    <row r="72"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 78 Activated carbon derived from/Data78_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5 AMC-700  0-110-0-450 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5 AMC-800  0-110-0-450 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5 AMC-900  0-110-0-450 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5 AMC-700  0&amp;110&amp;0&amp;450 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 AMC-800  0&amp;110&amp;0&amp;450 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5 AMC-900  0&amp;110&amp;0&amp;450 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-700  0-110-0-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 AMC-700  0&amp;110&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-700  0-110-0-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 AMC-700  0&amp;110&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-800  0-110-0-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 AMC-800  0&amp;110&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-800  0-110-0-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 AMC-800  0&amp;110&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-900  0-110-0-450 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 AMC-900  0&amp;110&amp;0&amp;450 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 AMC-900  0-110-0-450 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 AMC-900  0&amp;110&amp;0&amp;450 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
